--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_10-59.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_10-59.xlsx
@@ -32,19 +32,22 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRIMILLERGY 0.025% EYE DROPS</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>CEFOTAX 2 GM VIAL</t>
@@ -745,7 +748,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -771,11 +774,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>22</v>
+        <v>357</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -791,17 +794,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -817,17 +820,17 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>43.329999999999998</v>
+        <v>62</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
@@ -835,7 +838,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -843,13 +846,13 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>44</v>
+        <v>43.329999999999998</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -869,17 +872,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>27.5</v>
+        <v>44</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -887,7 +890,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -895,17 +898,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>24</v>
+        <v>27.5</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -921,17 +924,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -939,7 +942,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -947,17 +950,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -965,7 +968,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -973,13 +976,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -999,17 +1002,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1025,17 +1028,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1051,17 +1054,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>14.25</v>
+        <v>177</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1077,17 +1080,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>78</v>
+        <v>14.25</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1109,7 +1112,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1135,7 +1138,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1161,11 +1164,11 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1181,17 +1184,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1199,7 +1202,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1207,17 +1210,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>86.5</v>
+        <v>45</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1233,17 +1236,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>67</v>
+        <v>86.5</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1259,17 +1262,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1277,7 +1280,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1285,17 +1288,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>123</v>
+        <v>282</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1311,17 +1314,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1329,7 +1332,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1337,17 +1340,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1355,7 +1358,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1363,51 +1366,77 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" ht="24.75" customHeight="1">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c t="s" r="B29" s="7">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c t="s" r="H29" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="K29" s="10">
-        <v>2003.5799999999999</v>
-      </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="11">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9">
+        <v>6</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c t="s" r="N29" s="7">
         <v>46</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c t="s" r="F30" s="12">
+    </row>
+    <row r="30" ht="26.25" customHeight="1">
+      <c r="K30" s="10">
+        <v>2030.5799999999999</v>
+      </c>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="11">
         <v>47</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c t="s" r="I30" s="14">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c t="s" r="F31" s="12">
         <v>48</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+      <c t="s" r="I31" s="14">
+        <v>49</v>
+      </c>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="89">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1490,10 +1519,13 @@
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:N31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
